--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3751617.737088526</v>
+        <v>3749400.560649528</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7009117.172697622</v>
+        <v>7009117.17269762</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>123.5192627673673</v>
+        <v>414.0544001708697</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.3493641056171</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>71.45324723944314</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.5735823537993</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.6312528396099</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2457859202953</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>332.5561425091504</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>136.6755978001917</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7847493357609</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.40028636150861</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.68824422766019</v>
+        <v>58.68824422766011</v>
       </c>
       <c r="S3" t="n">
         <v>159.2768618828501</v>
       </c>
       <c r="T3" t="n">
-        <v>81.34027187702188</v>
+        <v>197.4725449465128</v>
       </c>
       <c r="U3" t="n">
         <v>225.8974400176183</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>83.17065399990288</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.1155015320359</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5530281207172</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>190.3455183613985</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.8704299785443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>5.983388191319154</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>177.9364581348098</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>205.3743261851594</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>159.3308024881128</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>127.004412707233</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.18624009875701</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>74.75769145492427</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292602</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>114.4746605491557</v>
+        <v>219.5489492761693</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>174.9735717555434</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.41670903610048</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,19 +2293,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>275.8983618762248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>1.281411432162827</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>41.45703344346424</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>24.32202182135224</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.32824838329562</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,13 +2767,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>14.20188851094954</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,19 +3004,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>195.5884891059317</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.6267112287644</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>15.87011428416537</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>137.6294752301916</v>
+        <v>114.073048485851</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100147</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121069</v>
+        <v>60.53581964121074</v>
       </c>
       <c r="S34" t="n">
         <v>161.3726923026053</v>
@@ -3244,7 +3244,7 @@
         <v>257.8155051767762</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W34" t="n">
         <v>258.1266653077544</v>
@@ -3284,7 +3284,7 @@
         <v>266.2114313584838</v>
       </c>
       <c r="I35" t="n">
-        <v>13.18059674408933</v>
+        <v>13.18059674408937</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.79142875933923</v>
+        <v>80.79142875933924</v>
       </c>
       <c r="T35" t="n">
-        <v>175.5216371107835</v>
+        <v>175.5216371107836</v>
       </c>
       <c r="U35" t="n">
         <v>222.5988389300654</v>
@@ -3332,7 +3332,7 @@
         <v>341.3347676496324</v>
       </c>
       <c r="Y35" t="n">
-        <v>357.8416056272169</v>
+        <v>357.8416056272146</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,7 +3424,7 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>120.2191399893757</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>114.0730484858512</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.95608738100151</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121069</v>
+        <v>60.53581964121074</v>
       </c>
       <c r="S37" t="n">
         <v>161.3726923026053</v>
@@ -3484,7 +3484,7 @@
         <v>223.7413102949914</v>
       </c>
       <c r="W37" t="n">
-        <v>258.1266653077544</v>
+        <v>209.7107176028162</v>
       </c>
       <c r="X37" t="n">
         <v>197.3133223602005</v>
@@ -3521,7 +3521,7 @@
         <v>266.2114313584838</v>
       </c>
       <c r="I38" t="n">
-        <v>13.18059674408931</v>
+        <v>13.18059674408937</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.79142875933923</v>
+        <v>80.79142875933924</v>
       </c>
       <c r="T38" t="n">
-        <v>175.5216371107835</v>
+        <v>175.5216371107836</v>
       </c>
       <c r="U38" t="n">
-        <v>222.5988389300653</v>
+        <v>222.5988389300654</v>
       </c>
       <c r="V38" t="n">
-        <v>299.3559254412983</v>
+        <v>299.355925441296</v>
       </c>
       <c r="W38" t="n">
-        <v>320.8446356885773</v>
+        <v>320.8446356885764</v>
       </c>
       <c r="X38" t="n">
         <v>341.3347676496324</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247707</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>118.4884863207317</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301916</v>
+        <v>71.80319228443744</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.95608738100151</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121071</v>
+        <v>60.53581964121073</v>
       </c>
       <c r="S40" t="n">
         <v>161.3726923026053</v>
@@ -3749,7 +3749,7 @@
         <v>353.5340370434251</v>
       </c>
       <c r="F41" t="n">
-        <v>378.4797127128748</v>
+        <v>378.4797127128747</v>
       </c>
       <c r="G41" t="n">
         <v>382.5253926246168</v>
@@ -3758,7 +3758,7 @@
         <v>266.2114313584838</v>
       </c>
       <c r="I41" t="n">
-        <v>13.18059674408931</v>
+        <v>13.18059674408929</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.79142875933923</v>
+        <v>80.79142875933915</v>
       </c>
       <c r="T41" t="n">
         <v>175.5216371107835</v>
       </c>
       <c r="U41" t="n">
-        <v>222.5988389300653</v>
+        <v>222.5988389300661</v>
       </c>
       <c r="V41" t="n">
-        <v>299.3559254412992</v>
+        <v>299.3559254412982</v>
       </c>
       <c r="W41" t="n">
-        <v>320.8446356885764</v>
+        <v>320.8446356885763</v>
       </c>
       <c r="X41" t="n">
-        <v>341.3347676496324</v>
+        <v>341.3347676496323</v>
       </c>
       <c r="Y41" t="n">
         <v>357.8416056272169</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247704</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531007</v>
+        <v>62.10464339940268</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697912</v>
+        <v>138.8504880697911</v>
       </c>
       <c r="D43" t="n">
-        <v>117.267473481132</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6294752301915</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121071</v>
+        <v>60.53581964121065</v>
       </c>
       <c r="S43" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U43" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V43" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W43" t="n">
-        <v>258.1266653077544</v>
+        <v>258.1266653077543</v>
       </c>
       <c r="X43" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>353.5340370434251</v>
       </c>
       <c r="F44" t="n">
-        <v>378.4797127128748</v>
+        <v>378.4797127128747</v>
       </c>
       <c r="G44" t="n">
         <v>382.5253926246168</v>
@@ -3995,7 +3995,7 @@
         <v>266.2114313584838</v>
       </c>
       <c r="I44" t="n">
-        <v>13.18059674408931</v>
+        <v>13.18059674408929</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.79142875933923</v>
+        <v>80.79142875933915</v>
       </c>
       <c r="T44" t="n">
         <v>175.5216371107835</v>
@@ -4034,13 +4034,13 @@
         <v>222.5988389300653</v>
       </c>
       <c r="V44" t="n">
-        <v>299.3559254412992</v>
+        <v>299.3559254412982</v>
       </c>
       <c r="W44" t="n">
-        <v>320.8446356885764</v>
+        <v>320.8446356885763</v>
       </c>
       <c r="X44" t="n">
-        <v>341.3347676496324</v>
+        <v>341.3347676496323</v>
       </c>
       <c r="Y44" t="n">
         <v>357.8416056272169</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247704</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.8504880697912</v>
+        <v>101.3407517159148</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
         <v>118.0376296177325</v>
@@ -4147,13 +4147,13 @@
         <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
-        <v>59.76566350461076</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>60.53581964121065</v>
       </c>
       <c r="S46" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T46" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U46" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W46" t="n">
-        <v>258.1266653077544</v>
+        <v>258.1266653077543</v>
       </c>
       <c r="X46" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1327.502789898314</v>
+        <v>636.867527086369</v>
       </c>
       <c r="C2" t="n">
-        <v>1327.502789898314</v>
+        <v>636.867527086369</v>
       </c>
       <c r="D2" t="n">
-        <v>969.2370912915633</v>
+        <v>636.867527086369</v>
       </c>
       <c r="E2" t="n">
-        <v>583.448838693319</v>
+        <v>636.867527086369</v>
       </c>
       <c r="F2" t="n">
-        <v>172.4629339037114</v>
+        <v>629.9220263371656</v>
       </c>
       <c r="G2" t="n">
-        <v>47.69600181546157</v>
+        <v>211.6852584878021</v>
       </c>
       <c r="H2" t="n">
-        <v>47.69600181546157</v>
+        <v>211.6852584878021</v>
       </c>
       <c r="I2" t="n">
-        <v>47.69600181546157</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="J2" t="n">
-        <v>140.7577663105055</v>
+        <v>140.7577663105058</v>
       </c>
       <c r="K2" t="n">
-        <v>400.9780317624616</v>
+        <v>400.9780317624621</v>
       </c>
       <c r="L2" t="n">
-        <v>776.0809088477181</v>
+        <v>776.0809088477192</v>
       </c>
       <c r="M2" t="n">
-        <v>1210.061679664838</v>
+        <v>1210.061679664839</v>
       </c>
       <c r="N2" t="n">
-        <v>1636.432715520892</v>
+        <v>1636.432715520894</v>
       </c>
       <c r="O2" t="n">
-        <v>1993.855156389988</v>
+        <v>1993.85515638999</v>
       </c>
       <c r="P2" t="n">
-        <v>2261.232557503802</v>
+        <v>2261.232557503804</v>
       </c>
       <c r="Q2" t="n">
-        <v>2384.800090773078</v>
+        <v>2384.800090773082</v>
       </c>
       <c r="R2" t="n">
-        <v>2384.800090773078</v>
+        <v>2312.625093561523</v>
       </c>
       <c r="S2" t="n">
-        <v>2384.800090773078</v>
+        <v>2130.227535628393</v>
       </c>
       <c r="T2" t="n">
-        <v>2384.800090773078</v>
+        <v>1910.397987305554</v>
       </c>
       <c r="U2" t="n">
-        <v>2384.800090773078</v>
+        <v>1656.614365163842</v>
       </c>
       <c r="V2" t="n">
-        <v>2053.737203429508</v>
+        <v>1325.551477820271</v>
       </c>
       <c r="W2" t="n">
-        <v>1700.968548159394</v>
+        <v>972.7828225501573</v>
       </c>
       <c r="X2" t="n">
-        <v>1327.502789898314</v>
+        <v>636.867527086369</v>
       </c>
       <c r="Y2" t="n">
-        <v>1327.502789898314</v>
+        <v>636.867527086369</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8358916126339</v>
+        <v>814.9116131305435</v>
       </c>
       <c r="C3" t="n">
-        <v>814.3828623315069</v>
+        <v>640.4585838494165</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4484526702556</v>
+        <v>491.5241741881652</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2109976648001</v>
+        <v>332.2867191827097</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6764396916851</v>
+        <v>185.7521612095947</v>
       </c>
       <c r="G3" t="n">
-        <v>221.620280297552</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="H3" t="n">
-        <v>114.7669981402177</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="I3" t="n">
-        <v>47.69600181546157</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="J3" t="n">
-        <v>109.4295715287955</v>
+        <v>109.4295715287957</v>
       </c>
       <c r="K3" t="n">
-        <v>341.5629180620085</v>
+        <v>341.5629180620089</v>
       </c>
       <c r="L3" t="n">
-        <v>715.0992457969808</v>
+        <v>511.6314845015183</v>
       </c>
       <c r="M3" t="n">
-        <v>1202.977743333648</v>
+        <v>999.5099820381857</v>
       </c>
       <c r="N3" t="n">
-        <v>1669.809471164893</v>
+        <v>1516.008185064328</v>
       </c>
       <c r="O3" t="n">
-        <v>2075.888742568291</v>
+        <v>1922.087456467727</v>
       </c>
       <c r="P3" t="n">
-        <v>2384.800090773078</v>
+        <v>2230.998804672514</v>
       </c>
       <c r="Q3" t="n">
-        <v>2384.800090773078</v>
+        <v>2384.800090773082</v>
       </c>
       <c r="R3" t="n">
-        <v>2325.519035997664</v>
+        <v>2325.519035997667</v>
       </c>
       <c r="S3" t="n">
-        <v>2164.633316924078</v>
+        <v>2164.633316924082</v>
       </c>
       <c r="T3" t="n">
-        <v>2082.471426139207</v>
+        <v>1965.166099806392</v>
       </c>
       <c r="U3" t="n">
-        <v>1854.292193798179</v>
+        <v>1736.986867465363</v>
       </c>
       <c r="V3" t="n">
-        <v>1619.140085566436</v>
+        <v>1652.9761058493</v>
       </c>
       <c r="W3" t="n">
-        <v>1364.902728838235</v>
+        <v>1398.738749121098</v>
       </c>
       <c r="X3" t="n">
-        <v>1157.051228632702</v>
+        <v>1190.887248915565</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.051228632702</v>
+        <v>983.1269501506115</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.6090953978547</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="C4" t="n">
-        <v>195.6090953978547</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="D4" t="n">
-        <v>195.6090953978547</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="E4" t="n">
-        <v>47.69600181546157</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="F4" t="n">
-        <v>47.69600181546157</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="G4" t="n">
-        <v>47.69600181546157</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="H4" t="n">
-        <v>47.69600181546157</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="I4" t="n">
-        <v>47.69600181546157</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="J4" t="n">
-        <v>47.69600181546157</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="K4" t="n">
-        <v>90.05593719627237</v>
+        <v>90.05593719627257</v>
       </c>
       <c r="L4" t="n">
-        <v>199.7885050713612</v>
+        <v>199.7885050713616</v>
       </c>
       <c r="M4" t="n">
-        <v>325.8752353488323</v>
+        <v>325.8752353488329</v>
       </c>
       <c r="N4" t="n">
-        <v>454.3985214198574</v>
+        <v>454.3985214198582</v>
       </c>
       <c r="O4" t="n">
-        <v>557.0942826886053</v>
+        <v>557.0942826886062</v>
       </c>
       <c r="P4" t="n">
-        <v>621.4475654661188</v>
+        <v>621.4475654661198</v>
       </c>
       <c r="Q4" t="n">
-        <v>621.4475654661188</v>
+        <v>621.4475654661198</v>
       </c>
       <c r="R4" t="n">
-        <v>621.4475654661188</v>
+        <v>467.7955437165887</v>
       </c>
       <c r="S4" t="n">
-        <v>621.4475654661188</v>
+        <v>467.7955437165887</v>
       </c>
       <c r="T4" t="n">
-        <v>621.4475654661188</v>
+        <v>239.9642021805106</v>
       </c>
       <c r="U4" t="n">
-        <v>621.4475654661188</v>
+        <v>239.9642021805106</v>
       </c>
       <c r="V4" t="n">
-        <v>621.4475654661188</v>
+        <v>239.9642021805106</v>
       </c>
       <c r="W4" t="n">
-        <v>621.4475654661188</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="X4" t="n">
-        <v>393.4580145681015</v>
+        <v>47.69600181546163</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.6090953978547</v>
+        <v>47.69600181546163</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.0401021781393</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2636.076575092838</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2636.076575092838</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2636.076575092838</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2305.013687749267</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.245032479153</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1578.779274218073</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1188.639942242261</v>
+        <v>1164.312709242129</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417901</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
         <v>1222.906241876376</v>
@@ -4790,7 +4790,7 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.574219456838</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832261</v>
       </c>
     </row>
     <row r="11">
@@ -5018,67 +5018,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J11" t="n">
-        <v>451.845814427773</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972666</v>
       </c>
       <c r="L11" t="n">
-        <v>1664.032360218089</v>
+        <v>1069.293752345676</v>
       </c>
       <c r="M11" t="n">
-        <v>2642.582663047918</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N11" t="n">
-        <v>3189.361480106701</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>3907.560977731606</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4405.689038432985</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5109,22 +5109,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089895</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468569</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>432.2000540015823</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998331</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998331</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998331</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998331</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998331</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998331</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570258</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590084</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.5901955154783</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551631</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1395.429061104434</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2373.979363934262</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.758180993045</v>
+        <v>3507.94220119647</v>
       </c>
       <c r="O14" t="n">
-        <v>3800.7228313225</v>
+        <v>4010.914672075807</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432985</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946818</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.78330633104</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5346,19 +5346,19 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320243</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>412.4103109586947</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307877</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437385</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1366.1499849298</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1111.465496723913</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201817</v>
+        <v>822.0483266869519</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>594.0587757889344</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>594.0587757889344</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,37 +5516,37 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1296.118160724479</v>
       </c>
       <c r="M17" t="n">
-        <v>2584.171204687568</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N17" t="n">
-        <v>3130.950021746351</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
@@ -5583,10 +5583,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089897</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468572</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5598,7 +5598,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>278.8425593065535</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>278.8425593065535</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>278.8425593065535</v>
       </c>
       <c r="E19" t="n">
         <v>263.2638710736754</v>
@@ -5674,13 +5674,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208129</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838522</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858348</v>
+        <v>681.2836032803233</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.9123359039152</v>
+        <v>460.4910241367932</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L20" t="n">
-        <v>1732.058578925876</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M20" t="n">
-        <v>2265.590483597801</v>
+        <v>1941.005908766399</v>
       </c>
       <c r="N20" t="n">
-        <v>2812.369300656583</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O20" t="n">
-        <v>3692.333950986038</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>409.4810578558177</v>
+        <v>726.3303343661177</v>
       </c>
       <c r="C22" t="n">
-        <v>409.4810578558177</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="D22" t="n">
-        <v>409.4810578558177</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E22" t="n">
         <v>409.4810578558177</v>
@@ -5908,7 +5908,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
@@ -5926,7 +5926,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
@@ -5935,25 +5935,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1174.375295242195</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>919.6908070363083</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W22" t="n">
-        <v>630.2736369993478</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="X22" t="n">
-        <v>630.2736369993478</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="Y22" t="n">
-        <v>409.4810578558177</v>
+        <v>907.9787991963574</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,19 +5990,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
         <v>1390.197710791128</v>
       </c>
       <c r="M23" t="n">
-        <v>2368.748013620957</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N23" t="n">
-        <v>2915.526830679739</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679678</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>452.5901955154781</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C25" t="n">
-        <v>283.6540125875712</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
-        <v>283.6540125875712</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>283.6540125875712</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>283.6540125875712</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1650.259425879611</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1361.156559005255</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>1106.472070799368</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570256</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="X25" t="n">
-        <v>673.3827746590082</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5901955154781</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6218,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>291.9947530764115</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>625.8141267662579</v>
       </c>
       <c r="L26" t="n">
-        <v>1797.117834600129</v>
+        <v>1076.848340014667</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272054</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.4972173763013</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839437</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6409,25 +6409,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783406</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W28" t="n">
-        <v>894.9278122480885</v>
+        <v>908.9588510157357</v>
       </c>
       <c r="X28" t="n">
-        <v>666.9382613500711</v>
+        <v>680.9693001177184</v>
       </c>
       <c r="Y28" t="n">
-        <v>446.145682206541</v>
+        <v>460.1767209741882</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2536.15366264131</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N29" t="n">
-        <v>3082.932479700092</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O29" t="n">
-        <v>3585.904950579429</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P29" t="n">
-        <v>4299.260038026375</v>
+        <v>4243.923885728433</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4702.402088237421</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>578.4172407837245</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="C31" t="n">
-        <v>409.4810578558177</v>
+        <v>490.916444624778</v>
       </c>
       <c r="D31" t="n">
-        <v>409.4810578558177</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
@@ -6640,31 +6640,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.206478295169</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W31" t="n">
-        <v>998.7893082582082</v>
+        <v>711.709023768308</v>
       </c>
       <c r="X31" t="n">
-        <v>770.7997573601908</v>
+        <v>711.709023768308</v>
       </c>
       <c r="Y31" t="n">
-        <v>760.0657056139643</v>
+        <v>490.9164446247779</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,25 +6701,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1088.893283004707</v>
       </c>
       <c r="M32" t="n">
-        <v>2649.230460361821</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,19 +6777,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>698.4741524686062</v>
+        <v>472.4728289383116</v>
       </c>
       <c r="C34" t="n">
-        <v>558.2211342162918</v>
+        <v>332.2198106859972</v>
       </c>
       <c r="D34" t="n">
-        <v>436.7876594795487</v>
+        <v>210.786335949254</v>
       </c>
       <c r="E34" t="n">
-        <v>436.7876594795487</v>
+        <v>210.786335949254</v>
       </c>
       <c r="F34" t="n">
-        <v>420.7572410106947</v>
+        <v>210.786335949254</v>
       </c>
       <c r="G34" t="n">
-        <v>281.7375690610062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413029</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L34" t="n">
         <v>745.5677573883472</v>
       </c>
       <c r="M34" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N34" t="n">
         <v>1487.357919090857</v>
@@ -6874,34 +6874,34 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P34" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q34" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R34" t="n">
         <v>2120.09513112621</v>
       </c>
       <c r="S34" t="n">
-        <v>1957.092411628629</v>
+        <v>1957.092411628628</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.008960873748</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U34" t="n">
         <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
-        <v>1503.589258674984</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W34" t="n">
-        <v>1242.855253313616</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>1043.548867091191</v>
+        <v>817.5475435608963</v>
       </c>
       <c r="Y34" t="n">
-        <v>851.4394526232534</v>
+        <v>625.4381290929588</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2164.653643346049</v>
+        <v>2164.653643346051</v>
       </c>
       <c r="C35" t="n">
-        <v>1824.37429108123</v>
+        <v>1824.374291081232</v>
       </c>
       <c r="D35" t="n">
-        <v>1494.791757150072</v>
+        <v>1494.791757150074</v>
       </c>
       <c r="E35" t="n">
-        <v>1137.686669227421</v>
+        <v>1137.686669227422</v>
       </c>
       <c r="F35" t="n">
-        <v>755.3839291134066</v>
+        <v>755.383929113407</v>
       </c>
       <c r="G35" t="n">
-        <v>368.9946436339956</v>
+        <v>368.9946436339961</v>
       </c>
       <c r="H35" t="n">
         <v>100.0942079183558</v>
       </c>
       <c r="I35" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341706</v>
       </c>
       <c r="J35" t="n">
-        <v>443.0652538127956</v>
+        <v>443.0652538127955</v>
       </c>
       <c r="K35" t="n">
         <v>1097.788585948095</v>
       </c>
       <c r="L35" t="n">
-        <v>1548.822799196504</v>
+        <v>1548.822799196503</v>
       </c>
       <c r="M35" t="n">
-        <v>2082.354703868428</v>
+        <v>2154.221153895207</v>
       </c>
       <c r="N35" t="n">
-        <v>2629.133520927211</v>
+        <v>3133.973426121854</v>
       </c>
       <c r="O35" t="n">
-        <v>3132.105991806548</v>
+        <v>3636.945897001191</v>
       </c>
       <c r="P35" t="n">
-        <v>3845.461079253493</v>
+        <v>4031.720263358368</v>
       </c>
       <c r="Q35" t="n">
-        <v>4280.006625114053</v>
+        <v>4280.006625114051</v>
       </c>
       <c r="R35" t="n">
-        <v>4339.023691670855</v>
+        <v>4339.023691670853</v>
       </c>
       <c r="S35" t="n">
-        <v>4257.416187873542</v>
+        <v>4257.41618787354</v>
       </c>
       <c r="T35" t="n">
-        <v>4080.121604933357</v>
+        <v>4080.121604933355</v>
       </c>
       <c r="U35" t="n">
-        <v>3855.274292882786</v>
+        <v>3855.274292882784</v>
       </c>
       <c r="V35" t="n">
-        <v>3552.894570214807</v>
+        <v>3552.894570214806</v>
       </c>
       <c r="W35" t="n">
-        <v>3228.809079620285</v>
+        <v>3228.809079620284</v>
       </c>
       <c r="X35" t="n">
-        <v>2884.026486034798</v>
+        <v>2884.026486034797</v>
       </c>
       <c r="Y35" t="n">
-        <v>2522.570318734578</v>
+        <v>2522.57031873458</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>961.8122118823424</v>
+        <v>961.8122118823422</v>
       </c>
       <c r="C36" t="n">
-        <v>787.3591826012154</v>
+        <v>787.3591826012153</v>
       </c>
       <c r="D36" t="n">
-        <v>638.4247729399641</v>
+        <v>638.424772939964</v>
       </c>
       <c r="E36" t="n">
-        <v>479.1873179345086</v>
+        <v>479.1873179345085</v>
       </c>
       <c r="F36" t="n">
-        <v>332.6527599613936</v>
+        <v>332.6527599613935</v>
       </c>
       <c r="G36" t="n">
-        <v>196.2896597940117</v>
+        <v>196.2896597940116</v>
       </c>
       <c r="H36" t="n">
-        <v>105.7877654318792</v>
+        <v>105.7877654318791</v>
       </c>
       <c r="I36" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341706</v>
       </c>
       <c r="J36" t="n">
-        <v>180.4577433240344</v>
+        <v>180.4577433240343</v>
       </c>
       <c r="K36" t="n">
-        <v>418.7219423043816</v>
+        <v>418.7219423043814</v>
       </c>
       <c r="L36" t="n">
-        <v>785.420102617047</v>
+        <v>785.4201026170467</v>
       </c>
       <c r="M36" t="n">
         <v>1232.696427839363</v>
@@ -7044,13 +7044,13 @@
         <v>2455.73966002057</v>
       </c>
       <c r="T36" t="n">
-        <v>2263.096659698426</v>
+        <v>2263.096659698425</v>
       </c>
       <c r="U36" t="n">
         <v>2035.028812832841</v>
       </c>
       <c r="V36" t="n">
-        <v>1799.876704601099</v>
+        <v>1799.876704601098</v>
       </c>
       <c r="W36" t="n">
         <v>1545.639347872897</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>463.6922683233344</v>
+        <v>512.5972660050899</v>
       </c>
       <c r="C37" t="n">
-        <v>323.4392500710201</v>
+        <v>512.5972660050899</v>
       </c>
       <c r="D37" t="n">
-        <v>202.0057753342769</v>
+        <v>391.1637912683467</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0057753342769</v>
+        <v>391.1637912683467</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0057753342769</v>
+        <v>272.9570084460289</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0057753342769</v>
+        <v>272.9570084460289</v>
       </c>
       <c r="H37" t="n">
-        <v>86.7804738334171</v>
+        <v>155.4229863394792</v>
       </c>
       <c r="I37" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341706</v>
       </c>
       <c r="J37" t="n">
-        <v>160.0154759789009</v>
+        <v>160.0154759789008</v>
       </c>
       <c r="K37" t="n">
-        <v>392.1150286263255</v>
+        <v>392.1150286263254</v>
       </c>
       <c r="L37" t="n">
         <v>736.7871967733697</v>
@@ -7108,7 +7108,7 @@
         <v>1478.57735847588</v>
       </c>
       <c r="O37" t="n">
-        <v>1806.019327094842</v>
+        <v>1806.019327094841</v>
       </c>
       <c r="P37" t="n">
         <v>2066.739197227049</v>
@@ -7132,13 +7132,13 @@
         <v>1268.807374529712</v>
       </c>
       <c r="W37" t="n">
-        <v>1008.073369168344</v>
+        <v>1056.978366850099</v>
       </c>
       <c r="X37" t="n">
-        <v>808.7669829459189</v>
+        <v>857.6719806276745</v>
       </c>
       <c r="Y37" t="n">
-        <v>616.6575684779816</v>
+        <v>665.562566159737</v>
       </c>
     </row>
     <row r="38">
@@ -7163,52 +7163,52 @@
         <v>755.383929113407</v>
       </c>
       <c r="G38" t="n">
-        <v>368.994643633996</v>
+        <v>368.9946436339961</v>
       </c>
       <c r="H38" t="n">
         <v>100.0942079183558</v>
       </c>
       <c r="I38" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341706</v>
       </c>
       <c r="J38" t="n">
-        <v>443.0652538127956</v>
+        <v>275.6596047924425</v>
       </c>
       <c r="K38" t="n">
-        <v>1097.788585948095</v>
+        <v>930.3829369277419</v>
       </c>
       <c r="L38" t="n">
-        <v>1548.822799196504</v>
+        <v>1381.41715017615</v>
       </c>
       <c r="M38" t="n">
-        <v>2082.354703868428</v>
+        <v>1914.949054848075</v>
       </c>
       <c r="N38" t="n">
-        <v>2629.133520927211</v>
+        <v>2894.701327074721</v>
       </c>
       <c r="O38" t="n">
-        <v>3132.105991806548</v>
+        <v>3397.673797954058</v>
       </c>
       <c r="P38" t="n">
-        <v>3845.461079253493</v>
+        <v>4031.720263358368</v>
       </c>
       <c r="Q38" t="n">
-        <v>4280.006625114053</v>
+        <v>4280.006625114051</v>
       </c>
       <c r="R38" t="n">
-        <v>4339.023691670855</v>
+        <v>4339.023691670853</v>
       </c>
       <c r="S38" t="n">
-        <v>4257.416187873543</v>
+        <v>4257.41618787354</v>
       </c>
       <c r="T38" t="n">
-        <v>4080.121604933358</v>
+        <v>4080.121604933355</v>
       </c>
       <c r="U38" t="n">
-        <v>3855.274292882787</v>
+        <v>3855.274292882784</v>
       </c>
       <c r="V38" t="n">
-        <v>3552.894570214809</v>
+        <v>3552.894570214808</v>
       </c>
       <c r="W38" t="n">
         <v>3228.809079620286</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>961.8122118823422</v>
+        <v>961.8122118823419</v>
       </c>
       <c r="C39" t="n">
-        <v>787.3591826012153</v>
+        <v>787.3591826012149</v>
       </c>
       <c r="D39" t="n">
-        <v>638.424772939964</v>
+        <v>638.4247729399636</v>
       </c>
       <c r="E39" t="n">
-        <v>479.1873179345085</v>
+        <v>479.1873179345081</v>
       </c>
       <c r="F39" t="n">
-        <v>332.6527599613935</v>
+        <v>332.6527599613931</v>
       </c>
       <c r="G39" t="n">
-        <v>196.2896597940116</v>
+        <v>196.2896597940112</v>
       </c>
       <c r="H39" t="n">
-        <v>105.7877654318791</v>
+        <v>105.7877654318788</v>
       </c>
       <c r="I39" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341706</v>
       </c>
       <c r="J39" t="n">
-        <v>180.4577433240344</v>
+        <v>180.4577433240343</v>
       </c>
       <c r="K39" t="n">
-        <v>418.7219423043812</v>
+        <v>418.7219423043814</v>
       </c>
       <c r="L39" t="n">
-        <v>785.4201026170466</v>
+        <v>785.4201026170467</v>
       </c>
       <c r="M39" t="n">
         <v>1232.696427839363</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>463.6922683233342</v>
+        <v>463.692268323334</v>
       </c>
       <c r="C40" t="n">
-        <v>463.6922683233342</v>
+        <v>463.692268323334</v>
       </c>
       <c r="D40" t="n">
-        <v>344.0069286054234</v>
+        <v>463.692268323334</v>
       </c>
       <c r="E40" t="n">
-        <v>344.0069286054234</v>
+        <v>463.692268323334</v>
       </c>
       <c r="F40" t="n">
-        <v>225.8001457831056</v>
+        <v>345.4854855010162</v>
       </c>
       <c r="G40" t="n">
-        <v>86.7804738334171</v>
+        <v>272.9570084460289</v>
       </c>
       <c r="H40" t="n">
-        <v>86.7804738334171</v>
+        <v>155.4229863394792</v>
       </c>
       <c r="I40" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341705</v>
       </c>
       <c r="J40" t="n">
-        <v>160.015475978901</v>
+        <v>160.0154759789008</v>
       </c>
       <c r="K40" t="n">
-        <v>392.1150286263257</v>
+        <v>392.1150286263254</v>
       </c>
       <c r="L40" t="n">
-        <v>736.7871967733701</v>
+        <v>736.7871967733697</v>
       </c>
       <c r="M40" t="n">
         <v>1109.056612071467</v>
@@ -7354,10 +7354,10 @@
         <v>2172.461863078112</v>
       </c>
       <c r="R40" t="n">
-        <v>2111.314570511233</v>
+        <v>2111.314570511232</v>
       </c>
       <c r="S40" t="n">
-        <v>1948.311851013652</v>
+        <v>1948.311851013651</v>
       </c>
       <c r="T40" t="n">
         <v>1755.22840025877</v>
@@ -7372,10 +7372,10 @@
         <v>1008.073369168344</v>
       </c>
       <c r="X40" t="n">
-        <v>808.7669829459189</v>
+        <v>808.7669829459188</v>
       </c>
       <c r="Y40" t="n">
-        <v>616.6575684779814</v>
+        <v>616.6575684779813</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2164.653643346051</v>
+        <v>2164.65364334605</v>
       </c>
       <c r="C41" t="n">
-        <v>1824.374291081232</v>
+        <v>1824.374291081231</v>
       </c>
       <c r="D41" t="n">
-        <v>1494.791757150074</v>
+        <v>1494.791757150073</v>
       </c>
       <c r="E41" t="n">
         <v>1137.686669227422</v>
       </c>
       <c r="F41" t="n">
-        <v>755.383929113407</v>
+        <v>755.3839291134068</v>
       </c>
       <c r="G41" t="n">
         <v>368.994643633996</v>
@@ -7406,55 +7406,55 @@
         <v>100.0942079183558</v>
       </c>
       <c r="I41" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="J41" t="n">
-        <v>275.6596047924426</v>
+        <v>275.6596047924425</v>
       </c>
       <c r="K41" t="n">
-        <v>609.478978482289</v>
+        <v>930.3829369277419</v>
       </c>
       <c r="L41" t="n">
-        <v>1473.997794135644</v>
+        <v>1381.41715017615</v>
       </c>
       <c r="M41" t="n">
-        <v>2452.548096965472</v>
+        <v>1914.949054848075</v>
       </c>
       <c r="N41" t="n">
-        <v>2999.326914024255</v>
+        <v>2461.727871906857</v>
       </c>
       <c r="O41" t="n">
-        <v>3502.299384903592</v>
+        <v>3341.692522236312</v>
       </c>
       <c r="P41" t="n">
-        <v>3897.07375126077</v>
+        <v>3821.528422605064</v>
       </c>
       <c r="Q41" t="n">
-        <v>4280.006625114053</v>
+        <v>4280.006625114052</v>
       </c>
       <c r="R41" t="n">
         <v>4339.023691670855</v>
       </c>
       <c r="S41" t="n">
-        <v>4257.416187873543</v>
+        <v>4257.416187873542</v>
       </c>
       <c r="T41" t="n">
-        <v>4080.121604933358</v>
+        <v>4080.121604933357</v>
       </c>
       <c r="U41" t="n">
-        <v>3855.274292882787</v>
+        <v>3855.274292882785</v>
       </c>
       <c r="V41" t="n">
-        <v>3552.894570214808</v>
+        <v>3552.894570214807</v>
       </c>
       <c r="W41" t="n">
         <v>3228.809079620286</v>
       </c>
       <c r="X41" t="n">
-        <v>2884.026486034799</v>
+        <v>2884.026486034798</v>
       </c>
       <c r="Y41" t="n">
-        <v>2522.57031873458</v>
+        <v>2522.570318734579</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>961.8122118823422</v>
+        <v>961.8122118823419</v>
       </c>
       <c r="C42" t="n">
-        <v>787.3591826012153</v>
+        <v>787.3591826012149</v>
       </c>
       <c r="D42" t="n">
-        <v>638.424772939964</v>
+        <v>638.4247729399636</v>
       </c>
       <c r="E42" t="n">
-        <v>479.1873179345085</v>
+        <v>479.1873179345081</v>
       </c>
       <c r="F42" t="n">
-        <v>332.6527599613935</v>
+        <v>332.6527599613931</v>
       </c>
       <c r="G42" t="n">
-        <v>196.2896597940116</v>
+        <v>196.2896597940112</v>
       </c>
       <c r="H42" t="n">
-        <v>105.7877654318791</v>
+        <v>105.7877654318788</v>
       </c>
       <c r="I42" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="J42" t="n">
         <v>180.4577433240344</v>
       </c>
       <c r="K42" t="n">
-        <v>418.7219423043812</v>
+        <v>418.7219423043815</v>
       </c>
       <c r="L42" t="n">
-        <v>785.4201026170466</v>
+        <v>785.4201026170467</v>
       </c>
       <c r="M42" t="n">
         <v>1232.696427839363</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>463.6922683233338</v>
+        <v>553.9256054482823</v>
       </c>
       <c r="C43" t="n">
-        <v>323.4392500710196</v>
+        <v>413.672587195968</v>
       </c>
       <c r="D43" t="n">
-        <v>204.9872566557349</v>
+        <v>413.672587195968</v>
       </c>
       <c r="E43" t="n">
-        <v>204.9872566557349</v>
+        <v>294.4426582891675</v>
       </c>
       <c r="F43" t="n">
-        <v>86.7804738334171</v>
+        <v>294.4426582891675</v>
       </c>
       <c r="G43" t="n">
-        <v>86.7804738334171</v>
+        <v>155.4229863394791</v>
       </c>
       <c r="H43" t="n">
-        <v>86.7804738334171</v>
+        <v>155.4229863394791</v>
       </c>
       <c r="I43" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="J43" t="n">
-        <v>160.0154759789009</v>
+        <v>160.015475978901</v>
       </c>
       <c r="K43" t="n">
-        <v>392.1150286263256</v>
+        <v>392.1150286263255</v>
       </c>
       <c r="L43" t="n">
         <v>736.7871967733699</v>
@@ -7591,28 +7591,28 @@
         <v>2172.461863078112</v>
       </c>
       <c r="R43" t="n">
-        <v>2111.314570511232</v>
+        <v>2111.314570511233</v>
       </c>
       <c r="S43" t="n">
-        <v>1948.311851013651</v>
+        <v>1948.311851013652</v>
       </c>
       <c r="T43" t="n">
-        <v>1755.22840025877</v>
+        <v>1755.228400258771</v>
       </c>
       <c r="U43" t="n">
-        <v>1494.808698060006</v>
+        <v>1494.808698060007</v>
       </c>
       <c r="V43" t="n">
-        <v>1268.807374529712</v>
+        <v>1268.807374529713</v>
       </c>
       <c r="W43" t="n">
-        <v>1008.073369168343</v>
+        <v>1008.073369168345</v>
       </c>
       <c r="X43" t="n">
-        <v>808.7669829459185</v>
+        <v>808.7669829459197</v>
       </c>
       <c r="Y43" t="n">
-        <v>616.6575684779809</v>
+        <v>616.6575684779821</v>
       </c>
     </row>
     <row r="44">
@@ -7625,61 +7625,61 @@
         <v>2164.653643346051</v>
       </c>
       <c r="C44" t="n">
-        <v>1824.374291081232</v>
+        <v>1824.374291081231</v>
       </c>
       <c r="D44" t="n">
-        <v>1494.791757150074</v>
+        <v>1494.791757150073</v>
       </c>
       <c r="E44" t="n">
         <v>1137.686669227422</v>
       </c>
       <c r="F44" t="n">
-        <v>755.383929113407</v>
+        <v>755.3839291134072</v>
       </c>
       <c r="G44" t="n">
-        <v>368.994643633996</v>
+        <v>368.9946436339964</v>
       </c>
       <c r="H44" t="n">
         <v>100.0942079183558</v>
       </c>
       <c r="I44" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="J44" t="n">
-        <v>443.0652538127956</v>
+        <v>275.6596047924425</v>
       </c>
       <c r="K44" t="n">
-        <v>776.884627502642</v>
+        <v>609.4789784822888</v>
       </c>
       <c r="L44" t="n">
-        <v>1227.918840751051</v>
+        <v>1060.513191730697</v>
       </c>
       <c r="M44" t="n">
-        <v>1761.450745422976</v>
+        <v>2039.063494560526</v>
       </c>
       <c r="N44" t="n">
-        <v>2308.229562481758</v>
+        <v>2923.78158536855</v>
       </c>
       <c r="O44" t="n">
-        <v>3108.17333515812</v>
+        <v>3426.754056247887</v>
       </c>
       <c r="P44" t="n">
-        <v>3821.528422605065</v>
+        <v>3821.528422605064</v>
       </c>
       <c r="Q44" t="n">
-        <v>4280.006625114053</v>
+        <v>4280.006625114052</v>
       </c>
       <c r="R44" t="n">
         <v>4339.023691670855</v>
       </c>
       <c r="S44" t="n">
-        <v>4257.416187873543</v>
+        <v>4257.416187873542</v>
       </c>
       <c r="T44" t="n">
-        <v>4080.121604933358</v>
+        <v>4080.121604933357</v>
       </c>
       <c r="U44" t="n">
-        <v>3855.274292882787</v>
+        <v>3855.274292882786</v>
       </c>
       <c r="V44" t="n">
         <v>3552.894570214808</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>961.8122118823424</v>
+        <v>961.8122118823419</v>
       </c>
       <c r="C45" t="n">
-        <v>787.3591826012154</v>
+        <v>787.3591826012149</v>
       </c>
       <c r="D45" t="n">
-        <v>638.4247729399641</v>
+        <v>638.4247729399636</v>
       </c>
       <c r="E45" t="n">
-        <v>479.1873179345086</v>
+        <v>479.1873179345081</v>
       </c>
       <c r="F45" t="n">
-        <v>332.6527599613936</v>
+        <v>332.6527599613931</v>
       </c>
       <c r="G45" t="n">
-        <v>196.2896597940117</v>
+        <v>196.2896597940112</v>
       </c>
       <c r="H45" t="n">
-        <v>105.7877654318792</v>
+        <v>105.7877654318788</v>
       </c>
       <c r="I45" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="J45" t="n">
         <v>180.4577433240344</v>
       </c>
       <c r="K45" t="n">
-        <v>418.7219423043816</v>
+        <v>418.7219423043815</v>
       </c>
       <c r="L45" t="n">
-        <v>785.420102617047</v>
+        <v>785.4201026170467</v>
       </c>
       <c r="M45" t="n">
         <v>1232.696427839363</v>
@@ -7755,13 +7755,13 @@
         <v>2455.73966002057</v>
       </c>
       <c r="T45" t="n">
-        <v>2263.096659698426</v>
+        <v>2263.096659698425</v>
       </c>
       <c r="U45" t="n">
         <v>2035.028812832841</v>
       </c>
       <c r="V45" t="n">
-        <v>1799.876704601099</v>
+        <v>1799.876704601098</v>
       </c>
       <c r="W45" t="n">
         <v>1545.639347872897</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>524.8395608902141</v>
+        <v>616.6575684779821</v>
       </c>
       <c r="C46" t="n">
-        <v>384.5865426378999</v>
+        <v>514.2931728053404</v>
       </c>
       <c r="D46" t="n">
-        <v>384.5865426378999</v>
+        <v>392.8596980685974</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3566137310993</v>
+        <v>273.6297691617968</v>
       </c>
       <c r="F46" t="n">
-        <v>147.1498309087815</v>
+        <v>155.4229863394791</v>
       </c>
       <c r="G46" t="n">
-        <v>86.7804738334171</v>
+        <v>155.4229863394791</v>
       </c>
       <c r="H46" t="n">
-        <v>86.7804738334171</v>
+        <v>155.4229863394791</v>
       </c>
       <c r="I46" t="n">
-        <v>86.7804738334171</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="J46" t="n">
-        <v>160.0154759789009</v>
+        <v>160.015475978901</v>
       </c>
       <c r="K46" t="n">
         <v>392.1150286263256</v>
@@ -7828,28 +7828,28 @@
         <v>2172.461863078112</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.461863078112</v>
+        <v>2111.314570511232</v>
       </c>
       <c r="S46" t="n">
-        <v>2009.459143580531</v>
+        <v>1948.311851013652</v>
       </c>
       <c r="T46" t="n">
-        <v>1816.37569282565</v>
+        <v>1755.22840025877</v>
       </c>
       <c r="U46" t="n">
-        <v>1555.955990626886</v>
+        <v>1494.808698060006</v>
       </c>
       <c r="V46" t="n">
-        <v>1329.954667096591</v>
+        <v>1268.807374529712</v>
       </c>
       <c r="W46" t="n">
-        <v>1069.220661735224</v>
+        <v>1008.073369168344</v>
       </c>
       <c r="X46" t="n">
-        <v>869.9142755127988</v>
+        <v>808.7669829459195</v>
       </c>
       <c r="Y46" t="n">
-        <v>677.8048610448612</v>
+        <v>616.6575684779821</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>165.3173540959207</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>429.1742175810311</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.72245329083196</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>107.5040408147556</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>104.3976710547488</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>160.3329896347531</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>429.3027489862404</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>60.01894884691984</v>
       </c>
       <c r="M17" t="n">
-        <v>80.35488666587514</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>176.2173930448433</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>17.45080131651162</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9644,16 +9644,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>64.28566532692525</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>17.45080131651133</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>7.630896635345181</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>411.0304280899001</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>107.5040408147563</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>16.80057335908877</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>19.79750571619354</v>
       </c>
       <c r="M32" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,19 +10592,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>72.59237376442354</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>188.1405900049272</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10832,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>241.6889889364974</v>
       </c>
       <c r="Q38" t="n">
-        <v>188.1405900049272</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.730349362740526e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>85.92074142583283</v>
       </c>
       <c r="Q41" t="n">
-        <v>136.006577876365</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4.014566457044566e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,16 +11303,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>341.3528017669111</v>
       </c>
       <c r="O44" t="n">
-        <v>299.9710119161866</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4.014566457044566e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.6457400831803</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>21.59472895491382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>111.2382664500695</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>131.01106129602</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.1679443159943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>10.31347632938804</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>217.303241919932</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>124.568774815564</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>195.2269274548169</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.5037317986417</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.3211098256415</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>90.9345092306593</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.9579421233304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177325</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F34" t="n">
-        <v>101.1546007099293</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>23.55642674434059</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>67.95608738100151</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>223.7413102949914</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177325</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>2.285633399632957</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>48.41594770493821</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
-        <v>1.730653668644067</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177325</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.82628294575417</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100147</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>89.33100375369793</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.951666508243735</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>37.50973635387631</v>
       </c>
       <c r="D46" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>77.86381172558083</v>
+        <v>137.6294752301915</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121071</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659628.6687644869</v>
+        <v>659628.6687644868</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
         <v>754455.3950852677</v>
@@ -26329,31 +26329,31 @@
         <v>754455.395085268</v>
       </c>
       <c r="H2" t="n">
-        <v>754455.3950852681</v>
+        <v>754455.3950852678</v>
       </c>
       <c r="I2" t="n">
-        <v>754455.395085268</v>
+        <v>754455.3950852678</v>
       </c>
       <c r="J2" t="n">
         <v>754455.3950852681</v>
       </c>
       <c r="K2" t="n">
-        <v>754455.3950852683</v>
+        <v>754455.3950852681</v>
       </c>
       <c r="L2" t="n">
         <v>769890.7966448726</v>
       </c>
       <c r="M2" t="n">
-        <v>769890.7966448725</v>
+        <v>769890.7966448724</v>
       </c>
       <c r="N2" t="n">
         <v>769890.7966448725</v>
       </c>
       <c r="O2" t="n">
-        <v>769890.7966448725</v>
+        <v>769890.796644873</v>
       </c>
       <c r="P2" t="n">
-        <v>769890.796644873</v>
+        <v>769890.7966448728</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>499025.2209182715</v>
+        <v>499025.2209182723</v>
       </c>
       <c r="C3" t="n">
-        <v>86438.14008084209</v>
+        <v>86438.14008084123</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155992.1587375578</v>
+        <v>155992.158737558</v>
       </c>
       <c r="K3" t="n">
-        <v>20097.15937377307</v>
+        <v>20097.15937377285</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.0664230693</v>
+        <v>22717.06642306935</v>
       </c>
       <c r="M3" t="n">
-        <v>102290.4294952597</v>
+        <v>102290.4294952596</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225434.3403095044</v>
+        <v>225434.3403095041</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,13 +26424,13 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499373</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499379</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="H4" t="n">
         <v>25090.72367499382</v>
@@ -26439,25 +26439,25 @@
         <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="L4" t="n">
         <v>34434.53238771018</v>
       </c>
       <c r="M4" t="n">
-        <v>47680.7400150016</v>
+        <v>47680.74001500168</v>
       </c>
       <c r="N4" t="n">
-        <v>47680.74001500157</v>
+        <v>47680.74001500168</v>
       </c>
       <c r="O4" t="n">
-        <v>47680.74001500156</v>
+        <v>47680.74001500163</v>
       </c>
       <c r="P4" t="n">
-        <v>47680.74001500155</v>
+        <v>47680.74001500167</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76645.98271336555</v>
+        <v>76645.98271336561</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,34 +26476,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371369</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>98770.76957511491</v>
       </c>
       <c r="M5" t="n">
-        <v>92097.54350773216</v>
+        <v>92097.54350773212</v>
       </c>
       <c r="N5" t="n">
-        <v>92097.54350773216</v>
+        <v>92097.54350773212</v>
       </c>
       <c r="O5" t="n">
         <v>92097.54350773216</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21115.86257007191</v>
+        <v>-21115.86257007267</v>
       </c>
       <c r="C6" t="n">
-        <v>409627.9572990858</v>
+        <v>409627.9572990866</v>
       </c>
       <c r="D6" t="n">
-        <v>496066.097379928</v>
+        <v>496066.0973799281</v>
       </c>
       <c r="E6" t="n">
-        <v>-94396.26083684643</v>
+        <v>-94463.45632707229</v>
       </c>
       <c r="F6" t="n">
-        <v>632981.1531565606</v>
+        <v>632913.9576663348</v>
       </c>
       <c r="G6" t="n">
-        <v>632981.1531565606</v>
+        <v>632913.9576663348</v>
       </c>
       <c r="H6" t="n">
-        <v>632981.1531565606</v>
+        <v>632913.9576663346</v>
       </c>
       <c r="I6" t="n">
-        <v>632981.1531565605</v>
+        <v>632913.9576663346</v>
       </c>
       <c r="J6" t="n">
-        <v>476988.9944190027</v>
+        <v>476921.7989287768</v>
       </c>
       <c r="K6" t="n">
-        <v>612883.9937827878</v>
+        <v>612816.798292562</v>
       </c>
       <c r="L6" t="n">
-        <v>613968.4282589782</v>
+        <v>613941.8522465408</v>
       </c>
       <c r="M6" t="n">
-        <v>527822.0836268791</v>
+        <v>527795.5076144416</v>
       </c>
       <c r="N6" t="n">
-        <v>630112.5131221388</v>
+        <v>630085.9371097013</v>
       </c>
       <c r="O6" t="n">
-        <v>630112.5131221388</v>
+        <v>630085.9371097019</v>
       </c>
       <c r="P6" t="n">
-        <v>630112.5131221393</v>
+        <v>630085.9371097017</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>28.39633302883662</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.5239143859982</v>
+        <v>310.5239143859988</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>596.2000226932696</v>
+        <v>596.2000226932704</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26820,10 +26820,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.755922917714</v>
+        <v>1084.755922917713</v>
       </c>
       <c r="N4" t="n">
-        <v>1084.755922917714</v>
+        <v>1084.755922917713</v>
       </c>
       <c r="O4" t="n">
         <v>1084.755922917714</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.5239143859982</v>
+        <v>310.5239143859988</v>
       </c>
       <c r="C3" t="n">
-        <v>67.21974983108851</v>
+        <v>67.21974983108788</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>596.2000226932696</v>
+        <v>596.2000226932704</v>
       </c>
       <c r="C4" t="n">
-        <v>78.08725006128604</v>
+        <v>78.0872500612852</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>596.2000226932696</v>
+        <v>596.2000226932704</v>
       </c>
       <c r="K4" t="n">
-        <v>78.08725006128604</v>
+        <v>78.0872500612852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>410.4686501631583</v>
+        <v>410.468650163158</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>596.2000226932696</v>
+        <v>596.2000226932704</v>
       </c>
       <c r="K4" t="n">
-        <v>78.08725006128604</v>
+        <v>78.0872500612852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>290.5351374035024</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>326.6902672888099</v>
       </c>
       <c r="I2" t="n">
-        <v>162.3493641056172</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>71.4532472394433</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.5735823537994</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.6312528396099</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2457859202953</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>37.17495816931864</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.7847493357609</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.40028636150856</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,13 +27509,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>116.1322730694909</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>149.6299331495224</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>138.6109157667848</v>
       </c>
       <c r="J4" t="n">
-        <v>53.76992631044478</v>
+        <v>53.7699263104447</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.27293217940866</v>
+        <v>39.27293217940856</v>
       </c>
       <c r="R4" t="n">
-        <v>152.1155015320359</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>214.2580022356942</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5530281207172</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2884860206497</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>96.17747997519251</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.71422337355048</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>168.4323246176523</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>208.3014805212438</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>96.44405126592652</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>19.66077927292486</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27904,19 +27904,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>91.8933650201765</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>23.98522015752656</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>19.42954993933617</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,16 +28099,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-4.143938630045737e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.094235813070554e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="12">
@@ -30052,7 +30052,7 @@
         <v>28.39633302883662</v>
       </c>
       <c r="Y35" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883902</v>
       </c>
     </row>
     <row r="36">
@@ -30280,10 +30280,10 @@
         <v>28.39633302883662</v>
       </c>
       <c r="V38" t="n">
+        <v>28.39633302883891</v>
+      </c>
+      <c r="W38" t="n">
         <v>28.39633302883662</v>
-      </c>
-      <c r="W38" t="n">
-        <v>28.39633302883573</v>
       </c>
       <c r="X38" t="n">
         <v>28.39633302883662</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="C41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="D41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="E41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="F41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="G41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="H41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="I41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="T41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="U41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883584</v>
       </c>
       <c r="V41" t="n">
-        <v>28.39633302883573</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="W41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="X41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="Y41" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="C44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="D44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="E44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="F44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="G44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="H44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="I44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="T44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="U44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="V44" t="n">
-        <v>28.39633302883573</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="W44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="X44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="Y44" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883669</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.248337344265318</v>
+        <v>1.248337344265321</v>
       </c>
       <c r="H2" t="n">
-        <v>12.7845348269572</v>
+        <v>12.78453482695722</v>
       </c>
       <c r="I2" t="n">
-        <v>48.12652546478873</v>
+        <v>48.12652546478883</v>
       </c>
       <c r="J2" t="n">
-        <v>105.9510716728387</v>
+        <v>105.9510716728389</v>
       </c>
       <c r="K2" t="n">
-        <v>158.7931914555896</v>
+        <v>158.7931914555899</v>
       </c>
       <c r="L2" t="n">
-        <v>196.9969954551494</v>
+        <v>196.9969954551498</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1971147012277</v>
+        <v>219.1971147012282</v>
       </c>
       <c r="N2" t="n">
-        <v>222.7439531806216</v>
+        <v>222.743953180622</v>
       </c>
       <c r="O2" t="n">
-        <v>210.3307987135833</v>
+        <v>210.3307987135838</v>
       </c>
       <c r="P2" t="n">
-        <v>179.5124705270333</v>
+        <v>179.5124705270336</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.8063893855315</v>
+        <v>134.8063893855318</v>
       </c>
       <c r="R2" t="n">
-        <v>78.41587070170638</v>
+        <v>78.41587070170654</v>
       </c>
       <c r="S2" t="n">
-        <v>28.44648723244597</v>
+        <v>28.44648723244603</v>
       </c>
       <c r="T2" t="n">
-        <v>5.464596724521434</v>
+        <v>5.464596724521445</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09986698754122544</v>
+        <v>0.09986698754122565</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6679193630189395</v>
+        <v>0.6679193630189408</v>
       </c>
       <c r="H3" t="n">
-        <v>6.450694900735549</v>
+        <v>6.450694900735561</v>
       </c>
       <c r="I3" t="n">
-        <v>22.99634648990647</v>
+        <v>22.99634648990652</v>
       </c>
       <c r="J3" t="n">
-        <v>63.10373245083763</v>
+        <v>63.10373245083775</v>
       </c>
       <c r="K3" t="n">
-        <v>107.8543297731066</v>
+        <v>107.8543297731068</v>
       </c>
       <c r="L3" t="n">
-        <v>145.0234564309325</v>
+        <v>145.0234564309328</v>
       </c>
       <c r="M3" t="n">
-        <v>169.235533340369</v>
+        <v>169.2355333403693</v>
       </c>
       <c r="N3" t="n">
-        <v>173.7146943318425</v>
+        <v>173.7146943318429</v>
       </c>
       <c r="O3" t="n">
-        <v>158.9150073933702</v>
+        <v>158.9150073933705</v>
       </c>
       <c r="P3" t="n">
-        <v>127.5433036277131</v>
+        <v>127.5433036277134</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.25932079518955</v>
+        <v>85.25932079518972</v>
       </c>
       <c r="R3" t="n">
-        <v>41.46958992498294</v>
+        <v>41.46958992498303</v>
       </c>
       <c r="S3" t="n">
-        <v>12.40630922098775</v>
+        <v>12.40630922098777</v>
       </c>
       <c r="T3" t="n">
-        <v>2.692183748308794</v>
+        <v>2.6921837483088</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04394206335650919</v>
+        <v>0.04394206335650928</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5599611570895049</v>
+        <v>0.559961157089506</v>
       </c>
       <c r="H4" t="n">
-        <v>4.978563742123056</v>
+        <v>4.978563742123066</v>
       </c>
       <c r="I4" t="n">
-        <v>16.83955916047348</v>
+        <v>16.83955916047351</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58925380622799</v>
+        <v>39.58925380622807</v>
       </c>
       <c r="K4" t="n">
-        <v>65.05730534185336</v>
+        <v>65.05730534185349</v>
       </c>
       <c r="L4" t="n">
-        <v>83.25095239128876</v>
+        <v>83.25095239128893</v>
       </c>
       <c r="M4" t="n">
-        <v>87.77645665176665</v>
+        <v>87.77645665176682</v>
       </c>
       <c r="N4" t="n">
-        <v>85.68932870261493</v>
+        <v>85.6893287026151</v>
       </c>
       <c r="O4" t="n">
-        <v>79.14796427661477</v>
+        <v>79.14796427661493</v>
       </c>
       <c r="P4" t="n">
-        <v>67.72475667198881</v>
+        <v>67.72475667198896</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.88911107228572</v>
+        <v>46.88911107228582</v>
       </c>
       <c r="R4" t="n">
-        <v>25.17788984513355</v>
+        <v>25.1778898451336</v>
       </c>
       <c r="S4" t="n">
-        <v>9.758595801278004</v>
+        <v>9.758595801278023</v>
       </c>
       <c r="T4" t="n">
-        <v>2.392561307564248</v>
+        <v>2.392561307564252</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03054333584124575</v>
+        <v>0.03054333584124582</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353154</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353154</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.00178231822615</v>
+        <v>94.00178231822636</v>
       </c>
       <c r="K2" t="n">
-        <v>262.8487529817738</v>
+        <v>262.8487529817742</v>
       </c>
       <c r="L2" t="n">
-        <v>378.8917950356126</v>
+        <v>378.891795035613</v>
       </c>
       <c r="M2" t="n">
-        <v>438.3644149667875</v>
+        <v>438.3644149667879</v>
       </c>
       <c r="N2" t="n">
-        <v>430.6778139960148</v>
+        <v>430.6778139960153</v>
       </c>
       <c r="O2" t="n">
-        <v>361.032768554642</v>
+        <v>361.0327685546424</v>
       </c>
       <c r="P2" t="n">
-        <v>270.0781829432464</v>
+        <v>270.0781829432467</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.8156901709867</v>
+        <v>124.815690170987</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.35714112457977</v>
+        <v>62.35714112457989</v>
       </c>
       <c r="K3" t="n">
-        <v>234.4781278113262</v>
+        <v>234.4781278113264</v>
       </c>
       <c r="L3" t="n">
-        <v>377.3094219545175</v>
+        <v>171.7864307469793</v>
       </c>
       <c r="M3" t="n">
-        <v>492.8065631683506</v>
+        <v>492.8065631683509</v>
       </c>
       <c r="N3" t="n">
-        <v>471.5471998295404</v>
+        <v>521.7153565920631</v>
       </c>
       <c r="O3" t="n">
-        <v>410.1810822256553</v>
+        <v>410.1810822256556</v>
       </c>
       <c r="P3" t="n">
-        <v>312.03166485332</v>
+        <v>312.0316648533203</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>155.3548344450173</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>42.78781351597051</v>
+        <v>42.78781351597064</v>
       </c>
       <c r="L4" t="n">
-        <v>110.8409776516049</v>
+        <v>110.8409776516051</v>
       </c>
       <c r="M4" t="n">
-        <v>127.3603336136072</v>
+        <v>127.3603336136074</v>
       </c>
       <c r="N4" t="n">
-        <v>129.8215010818435</v>
+        <v>129.8215010818437</v>
       </c>
       <c r="O4" t="n">
-        <v>103.7330921906544</v>
+        <v>103.7330921906546</v>
       </c>
       <c r="P4" t="n">
-        <v>65.0033159368823</v>
+        <v>65.00331593688244</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>563.0941552070879</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230594</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>503.1596572741208</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037196</v>
@@ -35647,25 +35647,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>615.9231040270853</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>981.6045843991519</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306615</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>515.609063239252</v>
       </c>
       <c r="M17" t="n">
-        <v>619.2760024961019</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>631.8075074371754</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>556.3719171467382</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>572.3386662151444</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>416.212787535883</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>198.4178976040577</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>866.6205424822323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>358.2983456184758</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>76.4137719013135</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>475.3876201085255</v>
       </c>
       <c r="M32" t="n">
-        <v>854.0890375411587</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190285</v>
+        <v>73.9747496419028</v>
       </c>
       <c r="K34" t="n">
-        <v>234.4439925731562</v>
+        <v>234.4439925731561</v>
       </c>
       <c r="L34" t="n">
         <v>348.1537051990347</v>
       </c>
       <c r="M34" t="n">
-        <v>376.0297124223205</v>
+        <v>376.0297124223204</v>
       </c>
       <c r="N34" t="n">
         <v>373.2532791963767</v>
@@ -37242,7 +37242,7 @@
         <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
-        <v>263.3534041739471</v>
+        <v>263.353404173947</v>
       </c>
       <c r="Q34" t="n">
         <v>106.7905715667303</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>611.5134895946501</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>438.9348948086467</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190285</v>
+        <v>73.9747496419028</v>
       </c>
       <c r="K37" t="n">
-        <v>234.4439925731562</v>
+        <v>234.4439925731561</v>
       </c>
       <c r="L37" t="n">
         <v>348.1537051990347</v>
       </c>
       <c r="M37" t="n">
-        <v>376.0297124223205</v>
+        <v>376.0297124223204</v>
       </c>
       <c r="N37" t="n">
         <v>373.2532791963767</v>
@@ -37479,7 +37479,7 @@
         <v>330.7494632514764</v>
       </c>
       <c r="P37" t="n">
-        <v>263.3534041739471</v>
+        <v>263.353404173947</v>
       </c>
       <c r="Q37" t="n">
         <v>106.7905715667303</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>640.4509751558691</v>
       </c>
       <c r="Q38" t="n">
-        <v>438.9348948086467</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609564</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190285</v>
+        <v>73.9747496419028</v>
       </c>
       <c r="K40" t="n">
-        <v>234.4439925731562</v>
+        <v>234.4439925731561</v>
       </c>
       <c r="L40" t="n">
         <v>348.1537051990347</v>
       </c>
       <c r="M40" t="n">
-        <v>376.0297124223205</v>
+        <v>376.0297124223204</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O40" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P40" t="n">
-        <v>263.3534041739471</v>
+        <v>263.353404173947</v>
       </c>
       <c r="Q40" t="n">
         <v>106.7905715667303</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>484.6827276452045</v>
       </c>
       <c r="Q41" t="n">
-        <v>386.8008826800844</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609564</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M43" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O43" t="n">
         <v>330.7494632514764</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>893.6546371798223</v>
       </c>
       <c r="O44" t="n">
-        <v>808.0240128044057</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K46" t="n">
         <v>234.4439925731562</v>
@@ -38184,7 +38184,7 @@
         <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O46" t="n">
         <v>330.7494632514764</v>
